--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1649.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value1649.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9960195015477803</v>
+        <v>2.756210803985596</v>
       </c>
       <c r="B1">
-        <v>3.552672137600125</v>
+        <v>3.133386373519897</v>
       </c>
       <c r="C1">
-        <v>3.173991617391322</v>
+        <v>2.863378286361694</v>
       </c>
       <c r="D1">
-        <v>2.349533895980708</v>
+        <v>3.244951248168945</v>
       </c>
       <c r="E1">
-        <v>1.273187558231734</v>
+        <v>2.231599569320679</v>
       </c>
     </row>
   </sheetData>
